--- a/USoc_vaccine/Tables_01-03-2021.xlsx
+++ b/USoc_vaccine/Tables_01-03-2021.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>p = 0.0002</t>
   </si>
@@ -145,9 +145,6 @@
     <t>No university education, N (%)</t>
   </si>
   <si>
-    <t>Low occupational social class, N (%)</t>
-  </si>
-  <si>
     <t>Comorbidities</t>
   </si>
   <si>
@@ -177,15 +174,6 @@
     </r>
   </si>
   <si>
-    <t>Other psychological factors</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>54.6</t>
-  </si>
-  <si>
     <t>&lt; 0.0001</t>
   </si>
   <si>
@@ -213,12 +201,6 @@
     <t>4233 (42.5%)</t>
   </si>
   <si>
-    <t>413 (23.1%)</t>
-  </si>
-  <si>
-    <t>1284 (12.9%)</t>
-  </si>
-  <si>
     <t>268 (15.0%)</t>
   </si>
   <si>
@@ -246,15 +228,6 @@
     <t>100.5 (14.8)</t>
   </si>
   <si>
-    <t>Psychological distress score</t>
-  </si>
-  <si>
-    <t>13.5 (6.9)</t>
-  </si>
-  <si>
-    <t>12.5 (5.8)</t>
-  </si>
-  <si>
     <t>Number hesitant / Total</t>
   </si>
   <si>
@@ -331,6 +304,99 @@
   </si>
   <si>
     <t>1.48 (1.25, 1.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age, sex, ethnicity &amp; shielding </t>
+  </si>
+  <si>
+    <t>352 / 2566</t>
+  </si>
+  <si>
+    <t>Age, sex, ethnicity &amp; comorbidity</t>
+  </si>
+  <si>
+    <t>Age, sex, ethnicity &amp; education</t>
+  </si>
+  <si>
+    <t>Age, sex, ethnicity &amp; psychological distress</t>
+  </si>
+  <si>
+    <t>Other psychological &amp; behavioural factors</t>
+  </si>
+  <si>
+    <t>Anyone shielding in the household</t>
+  </si>
+  <si>
+    <t>196 (10.6%)</t>
+  </si>
+  <si>
+    <t>1187 (11.7%)</t>
+  </si>
+  <si>
+    <t>Psychological distress (GHQ-12 &gt; 3)</t>
+  </si>
+  <si>
+    <t>509 (27.6%)</t>
+  </si>
+  <si>
+    <t>2399 (23.7%)</t>
+  </si>
+  <si>
+    <t>Note. All model Ns = 7361.</t>
+  </si>
+  <si>
+    <t>236 / 2048</t>
+  </si>
+  <si>
+    <t>365 / 1794</t>
+  </si>
+  <si>
+    <t>1.76 (1.62, 1.90)</t>
+  </si>
+  <si>
+    <t>1.77 (1.63, 1.91)</t>
+  </si>
+  <si>
+    <t>1.78 (1.64, 1.91)</t>
+  </si>
+  <si>
+    <t>1.52 (1.37, 1.67)</t>
+  </si>
+  <si>
+    <t>1.54 (1.40, 1.69)</t>
+  </si>
+  <si>
+    <t>1.28 (1.07, 1.54)</t>
+  </si>
+  <si>
+    <t>1.29 (1.08, 1.55)</t>
+  </si>
+  <si>
+    <t>1.17 (0.98, 1.41)</t>
+  </si>
+  <si>
+    <t>1.18 (0.99, 1.42)</t>
+  </si>
+  <si>
+    <t>1.99 (1.66, 2.40)</t>
+  </si>
+  <si>
+    <t>2.01 (1.67, 2.43)</t>
+  </si>
+  <si>
+    <t>2.01 (1.67, 2.42)</t>
+  </si>
+  <si>
+    <t>1.64 (1.35, 1.99)</t>
+  </si>
+  <si>
+    <t>1.67 (1.37, 2.03)</t>
+  </si>
+  <si>
+    <t>45.0 (14.5)</t>
+  </si>
+  <si>
+    <t>54.6(15.6)</t>
   </si>
 </sst>
 </file>
@@ -410,7 +476,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -596,11 +662,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -745,6 +826,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,10 +1168,10 @@
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" s="49"/>
     </row>
@@ -1103,13 +1188,13 @@
         <v>28</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1117,13 +1202,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,13 +1216,13 @@
         <v>30</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,139 +1244,139 @@
         <v>32</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>58</v>
+      <c r="B18" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="D21" s="23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>43</v>
-      </c>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>88</v>
+      </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="A24" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1300,14 +1385,8 @@
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:D2"/>
@@ -1324,22 +1403,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1349,9 +1427,7 @@
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
-      <c r="C2" s="52" t="s">
-        <v>12</v>
-      </c>
+      <c r="C2" s="52"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -1361,22 +1437,22 @@
     <row r="3" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>10</v>
@@ -1406,7 +1482,9 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="C5" s="32" t="s">
         <v>11</v>
       </c>
@@ -1424,24 +1502,26 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="C6" s="33" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1452,24 +1532,26 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="33" t="s">
+        <v>97</v>
+      </c>
       <c r="C7" s="33" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>84</v>
+        <v>108</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I7" s="32"/>
       <c r="K7" s="1"/>
@@ -1479,7 +1561,7 @@
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="33" t="s">
         <v>4</v>
       </c>
@@ -1493,113 +1575,101 @@
         <v>4</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="34" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>74</v>
-      </c>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>19</v>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
+      <c r="A13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1607,9 +1677,9 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -1623,24 +1693,21 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1654,6 +1721,7 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1694,24 +1762,10 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B12:H12"/>
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1782,7 +1836,7 @@
     <row r="3" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="29" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5</v>
@@ -1847,22 +1901,22 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="33" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>89</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1875,22 +1929,22 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="H7" s="32" t="s">
         <v>82</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>91</v>
       </c>
       <c r="I7" s="32"/>
       <c r="K7" s="1"/>
@@ -1926,26 +1980,26 @@
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="34" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D9" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>77</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>86</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1954,26 +2008,26 @@
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="33" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
